--- a/Excel/镇魂街/cardDailyLevel.传记副本.xlsx
+++ b/Excel/镇魂街/cardDailyLevel.传记副本.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\CeHua\trunk\ZHJStaffSpace\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZHJcehua\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940C8355-8102-480E-A154-E0675CD58E46}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -17,24 +18,16 @@
     <sheet name="卡牌传记关卡" sheetId="33" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="X3" authorId="0" shapeId="0">
+    <comment ref="X3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -873,57 +866,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>KP_KM_1102002</t>
-  </si>
-  <si>
-    <t>KP_KM_1102003</t>
-  </si>
-  <si>
-    <t>KP_KM_1102005</t>
-  </si>
-  <si>
-    <t>KP_KM_1102007</t>
-  </si>
-  <si>
-    <t>KP_KM_1102008</t>
-  </si>
-  <si>
-    <t>KP_KM_1102009</t>
-  </si>
-  <si>
-    <t>KP_KM_1102010</t>
-  </si>
-  <si>
-    <t>KP_KM_1102011</t>
-  </si>
-  <si>
-    <t>KP_KM_1102014</t>
-  </si>
-  <si>
-    <t>KP_KM_1102016</t>
-  </si>
-  <si>
-    <t>KP_KM_1102017</t>
-  </si>
-  <si>
-    <t>KP_KM_1102020</t>
-  </si>
-  <si>
-    <t>KP_KM_1102021</t>
-  </si>
-  <si>
-    <t>KP_KM_1102024</t>
-  </si>
-  <si>
-    <t>KP_KM_1102026</t>
-  </si>
-  <si>
-    <t>KP_KM_1102030</t>
-  </si>
-  <si>
-    <t>KP_KM_1102031</t>
-  </si>
-  <si>
     <r>
       <t>int:</t>
     </r>
@@ -943,6 +885,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1380,11 +1323,62 @@
     <t>int:e&lt;&gt;</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
+  <si>
+    <t>kp_km_1102002</t>
+  </si>
+  <si>
+    <t>kp_km_1102003</t>
+  </si>
+  <si>
+    <t>kp_km_1102005</t>
+  </si>
+  <si>
+    <t>kp_km_1102007</t>
+  </si>
+  <si>
+    <t>kp_km_1102008</t>
+  </si>
+  <si>
+    <t>kp_km_1102009</t>
+  </si>
+  <si>
+    <t>kp_km_1102010</t>
+  </si>
+  <si>
+    <t>kp_km_1102011</t>
+  </si>
+  <si>
+    <t>kp_km_1102014</t>
+  </si>
+  <si>
+    <t>kp_km_1102016</t>
+  </si>
+  <si>
+    <t>kp_km_1102017</t>
+  </si>
+  <si>
+    <t>kp_km_1102020</t>
+  </si>
+  <si>
+    <t>kp_km_1102021</t>
+  </si>
+  <si>
+    <t>kp_km_1102024</t>
+  </si>
+  <si>
+    <t>kp_km_1102026</t>
+  </si>
+  <si>
+    <t>kp_km_1102030</t>
+  </si>
+  <si>
+    <t>kp_km_1102031</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1618,19 +1612,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Grid" xfId="4"/>
-    <cellStyle name="Normal" xfId="7"/>
+    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal" xfId="7" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="8"/>
-    <cellStyle name="超链接 2" xfId="9"/>
-    <cellStyle name="大标题" xfId="6"/>
-    <cellStyle name="横向标题" xfId="1"/>
-    <cellStyle name="文本" xfId="10"/>
-    <cellStyle name="无效" xfId="11"/>
-    <cellStyle name="因变Grid" xfId="3"/>
-    <cellStyle name="英文标题" xfId="2"/>
-    <cellStyle name="中文标题" xfId="12"/>
-    <cellStyle name="纵向标题" xfId="5"/>
+    <cellStyle name="常规 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="超链接 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="大标题" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="横向标题" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="文本" xfId="10" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="无效" xfId="11" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="因变Grid" xfId="3" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="英文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="中文标题" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="纵向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1902,7 +1896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2114,7 +2108,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2414,11 +2408,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AI109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2470,7 +2464,7 @@
         <v>12</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>13</v>
@@ -2491,7 +2485,7 @@
         <v>14</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>15</v>
@@ -2577,7 +2571,7 @@
         <v>34</v>
       </c>
       <c r="I2" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>34</v>
@@ -2595,7 +2589,7 @@
         <v>36</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="P2" t="s">
         <v>34</v>
@@ -2684,7 +2678,7 @@
         <v>47</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>48</v>
@@ -2800,13 +2794,13 @@
         <v>142</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="M4" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>249</v>
+        <v>392</v>
       </c>
       <c r="O4" s="7">
         <v>100000</v>
@@ -2818,7 +2812,7 @@
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
       <c r="T4" s="7" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="U4" s="7">
         <v>1</v>
@@ -2885,13 +2879,13 @@
         <v>142</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="M5" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>249</v>
+        <v>392</v>
       </c>
       <c r="O5" s="7">
         <v>100000</v>
@@ -2903,7 +2897,7 @@
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
       <c r="T5" s="7" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="U5" s="7">
         <v>1</v>
@@ -2970,13 +2964,13 @@
         <v>142</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="M6" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>249</v>
+        <v>392</v>
       </c>
       <c r="O6" s="7">
         <v>100000</v>
@@ -2988,7 +2982,7 @@
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
       <c r="T6" s="7" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="U6" s="7" t="s">
         <v>113</v>
@@ -3055,13 +3049,13 @@
         <v>142</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="M7" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>249</v>
+        <v>392</v>
       </c>
       <c r="O7" s="7">
         <v>100000</v>
@@ -3073,7 +3067,7 @@
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
       <c r="T7" s="7" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="U7" s="7">
         <v>1</v>
@@ -3140,13 +3134,13 @@
         <v>142</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>249</v>
+        <v>392</v>
       </c>
       <c r="O8" s="7">
         <v>100000</v>
@@ -3158,13 +3152,13 @@
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
       <c r="T8" s="7" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="U8" s="7" t="s">
         <v>113</v>
       </c>
       <c r="V8" s="7" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="W8" s="6">
         <v>1</v>
@@ -3225,13 +3219,13 @@
         <v>142</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="M9" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>250</v>
+        <v>393</v>
       </c>
       <c r="O9" s="7">
         <v>100000</v>
@@ -3243,7 +3237,7 @@
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
       <c r="T9" s="7" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="U9" s="7">
         <v>1</v>
@@ -3310,13 +3304,13 @@
         <v>142</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="M10" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>250</v>
+        <v>393</v>
       </c>
       <c r="O10" s="7">
         <v>100000</v>
@@ -3328,7 +3322,7 @@
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
       <c r="T10" s="7" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="U10" s="7">
         <v>1</v>
@@ -3395,13 +3389,13 @@
         <v>142</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="M11" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>250</v>
+        <v>393</v>
       </c>
       <c r="O11" s="7">
         <v>100000</v>
@@ -3413,7 +3407,7 @@
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
       <c r="T11" s="7" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="U11" s="7" t="s">
         <v>113</v>
@@ -3480,13 +3474,13 @@
         <v>142</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="M12" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>250</v>
+        <v>393</v>
       </c>
       <c r="O12" s="7">
         <v>100000</v>
@@ -3498,7 +3492,7 @@
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="U12" s="7">
         <v>1</v>
@@ -3565,13 +3559,13 @@
         <v>142</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>250</v>
+        <v>393</v>
       </c>
       <c r="O13" s="7">
         <v>100000</v>
@@ -3583,13 +3577,13 @@
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
       <c r="T13" s="7" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="U13" s="7" t="s">
         <v>113</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="W13" s="7">
         <v>1</v>
@@ -3650,13 +3644,13 @@
         <v>142</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>250</v>
+        <v>393</v>
       </c>
       <c r="O14" s="7">
         <v>100000</v>
@@ -3668,13 +3662,13 @@
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
       <c r="T14" s="6" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="U14" s="6" t="s">
         <v>113</v>
       </c>
       <c r="V14" s="6" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="W14" s="6">
         <v>1</v>
@@ -3735,13 +3729,13 @@
         <v>142</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>250</v>
+        <v>393</v>
       </c>
       <c r="O15" s="7">
         <v>100000</v>
@@ -3753,13 +3747,13 @@
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
       <c r="T15" s="6" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="U15" s="6" t="s">
         <v>113</v>
       </c>
       <c r="V15" s="6" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="W15" s="6">
         <v>1</v>
@@ -3820,13 +3814,13 @@
         <v>142</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="M16" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>250</v>
+        <v>393</v>
       </c>
       <c r="O16" s="7">
         <v>100000</v>
@@ -3838,7 +3832,7 @@
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
       <c r="T16" s="6" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="U16" s="6">
         <v>2</v>
@@ -3905,13 +3899,13 @@
         <v>142</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="M17" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>251</v>
+        <v>394</v>
       </c>
       <c r="O17" s="7">
         <v>100000</v>
@@ -3923,7 +3917,7 @@
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
       <c r="T17" s="6" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="U17" s="6">
         <v>1</v>
@@ -3990,13 +3984,13 @@
         <v>142</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="M18" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>251</v>
+        <v>394</v>
       </c>
       <c r="O18" s="7">
         <v>100000</v>
@@ -4008,7 +4002,7 @@
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
       <c r="T18" s="6" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="U18" s="6">
         <v>1</v>
@@ -4075,13 +4069,13 @@
         <v>142</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="M19" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>251</v>
+        <v>394</v>
       </c>
       <c r="O19" s="7">
         <v>100000</v>
@@ -4093,7 +4087,7 @@
       <c r="R19" s="6"/>
       <c r="S19" s="6"/>
       <c r="T19" s="6" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="U19" s="6" t="s">
         <v>113</v>
@@ -4160,13 +4154,13 @@
         <v>142</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="M20" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>251</v>
+        <v>394</v>
       </c>
       <c r="O20" s="7">
         <v>100000</v>
@@ -4178,7 +4172,7 @@
       <c r="R20" s="6"/>
       <c r="S20" s="6"/>
       <c r="T20" s="6" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="U20" s="6">
         <v>1</v>
@@ -4245,13 +4239,13 @@
         <v>142</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>251</v>
+        <v>394</v>
       </c>
       <c r="O21" s="7">
         <v>100000</v>
@@ -4263,13 +4257,13 @@
       <c r="R21" s="6"/>
       <c r="S21" s="6"/>
       <c r="T21" s="6" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="U21" s="6" t="s">
         <v>113</v>
       </c>
       <c r="V21" s="6" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="W21" s="6">
         <v>1</v>
@@ -4330,13 +4324,13 @@
         <v>142</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="M22" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>252</v>
+        <v>395</v>
       </c>
       <c r="O22" s="7">
         <v>100000</v>
@@ -4348,7 +4342,7 @@
       <c r="R22" s="6"/>
       <c r="S22" s="6"/>
       <c r="T22" s="6" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="U22" s="6">
         <v>1</v>
@@ -4415,13 +4409,13 @@
         <v>142</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="M23" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N23" s="7" t="s">
-        <v>252</v>
+        <v>395</v>
       </c>
       <c r="O23" s="7">
         <v>100000</v>
@@ -4433,7 +4427,7 @@
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
       <c r="T23" s="6" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="U23" s="6">
         <v>1</v>
@@ -4500,13 +4494,13 @@
         <v>142</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="M24" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N24" s="7" t="s">
-        <v>252</v>
+        <v>395</v>
       </c>
       <c r="O24" s="7">
         <v>100000</v>
@@ -4518,7 +4512,7 @@
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
       <c r="T24" s="6" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="U24" s="6" t="s">
         <v>113</v>
@@ -4585,13 +4579,13 @@
         <v>142</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="M25" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>252</v>
+        <v>395</v>
       </c>
       <c r="O25" s="7">
         <v>100000</v>
@@ -4603,7 +4597,7 @@
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
       <c r="T25" s="6" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="U25" s="6">
         <v>1</v>
@@ -4670,13 +4664,13 @@
         <v>142</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>252</v>
+        <v>395</v>
       </c>
       <c r="O26" s="7">
         <v>100000</v>
@@ -4688,13 +4682,13 @@
       <c r="R26" s="6"/>
       <c r="S26" s="6"/>
       <c r="T26" s="6" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="U26" s="6" t="s">
         <v>113</v>
       </c>
       <c r="V26" s="6" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="W26" s="6">
         <v>1</v>
@@ -4755,13 +4749,13 @@
         <v>142</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>252</v>
+        <v>395</v>
       </c>
       <c r="O27" s="7">
         <v>100000</v>
@@ -4773,13 +4767,13 @@
       <c r="R27" s="6"/>
       <c r="S27" s="6"/>
       <c r="T27" s="6" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="U27" s="6" t="s">
         <v>113</v>
       </c>
       <c r="V27" s="6" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="W27" s="6">
         <v>1</v>
@@ -4840,13 +4834,13 @@
         <v>142</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>252</v>
+        <v>395</v>
       </c>
       <c r="O28" s="7">
         <v>100000</v>
@@ -4858,13 +4852,13 @@
       <c r="R28" s="6"/>
       <c r="S28" s="6"/>
       <c r="T28" s="6" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="U28" s="6" t="s">
         <v>113</v>
       </c>
       <c r="V28" s="6" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="W28" s="6">
         <v>1</v>
@@ -4925,13 +4919,13 @@
         <v>142</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="M29" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N29" s="6" t="s">
-        <v>252</v>
+        <v>395</v>
       </c>
       <c r="O29" s="7">
         <v>100000</v>
@@ -4943,7 +4937,7 @@
       <c r="R29" s="6"/>
       <c r="S29" s="6"/>
       <c r="T29" s="6" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="U29" s="6">
         <v>2</v>
@@ -5010,13 +5004,13 @@
         <v>142</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="M30" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>253</v>
+        <v>396</v>
       </c>
       <c r="O30" s="7">
         <v>100000</v>
@@ -5028,7 +5022,7 @@
       <c r="R30" s="6"/>
       <c r="S30" s="6"/>
       <c r="T30" s="6" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="U30" s="6">
         <v>1</v>
@@ -5095,13 +5089,13 @@
         <v>142</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="M31" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>253</v>
+        <v>396</v>
       </c>
       <c r="O31" s="7">
         <v>100000</v>
@@ -5113,7 +5107,7 @@
       <c r="R31" s="6"/>
       <c r="S31" s="6"/>
       <c r="T31" s="6" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="U31" s="6">
         <v>1</v>
@@ -5180,13 +5174,13 @@
         <v>142</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="M32" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>253</v>
+        <v>396</v>
       </c>
       <c r="O32" s="7">
         <v>100000</v>
@@ -5198,7 +5192,7 @@
       <c r="R32" s="6"/>
       <c r="S32" s="6"/>
       <c r="T32" s="6" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="U32" s="6" t="s">
         <v>113</v>
@@ -5265,13 +5259,13 @@
         <v>142</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="M33" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>253</v>
+        <v>396</v>
       </c>
       <c r="O33" s="7">
         <v>100000</v>
@@ -5283,7 +5277,7 @@
       <c r="R33" s="6"/>
       <c r="S33" s="6"/>
       <c r="T33" s="6" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="U33" s="6">
         <v>1</v>
@@ -5350,13 +5344,13 @@
         <v>142</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>253</v>
+        <v>396</v>
       </c>
       <c r="O34" s="7">
         <v>100000</v>
@@ -5368,13 +5362,13 @@
       <c r="R34" s="6"/>
       <c r="S34" s="6"/>
       <c r="T34" s="6" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="U34" s="6" t="s">
         <v>113</v>
       </c>
       <c r="V34" s="6" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="W34" s="6">
         <v>1</v>
@@ -5435,13 +5429,13 @@
         <v>142</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>253</v>
+        <v>396</v>
       </c>
       <c r="O35" s="7">
         <v>100000</v>
@@ -5453,13 +5447,13 @@
       <c r="R35" s="6"/>
       <c r="S35" s="6"/>
       <c r="T35" s="6" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="U35" s="6" t="s">
         <v>113</v>
       </c>
       <c r="V35" s="6" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="W35" s="6">
         <v>1</v>
@@ -5520,13 +5514,13 @@
         <v>142</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>253</v>
+        <v>396</v>
       </c>
       <c r="O36" s="7">
         <v>100000</v>
@@ -5538,13 +5532,13 @@
       <c r="R36" s="6"/>
       <c r="S36" s="6"/>
       <c r="T36" s="6" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="U36" s="6" t="s">
         <v>113</v>
       </c>
       <c r="V36" s="6" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="W36" s="6">
         <v>1</v>
@@ -5605,13 +5599,13 @@
         <v>142</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="M37" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>253</v>
+        <v>396</v>
       </c>
       <c r="O37" s="7">
         <v>100000</v>
@@ -5623,7 +5617,7 @@
       <c r="R37" s="6"/>
       <c r="S37" s="6"/>
       <c r="T37" s="6" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="U37" s="6">
         <v>2</v>
@@ -5690,13 +5684,13 @@
         <v>142</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="M38" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>254</v>
+        <v>397</v>
       </c>
       <c r="O38" s="7">
         <v>100000</v>
@@ -5708,7 +5702,7 @@
       <c r="R38" s="6"/>
       <c r="S38" s="6"/>
       <c r="T38" s="6" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="U38" s="6">
         <v>1</v>
@@ -5775,13 +5769,13 @@
         <v>142</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="M39" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N39" s="6" t="s">
-        <v>254</v>
+        <v>397</v>
       </c>
       <c r="O39" s="7">
         <v>100000</v>
@@ -5793,7 +5787,7 @@
       <c r="R39" s="6"/>
       <c r="S39" s="6"/>
       <c r="T39" s="6" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="U39" s="6">
         <v>1</v>
@@ -5860,13 +5854,13 @@
         <v>142</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="M40" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>254</v>
+        <v>397</v>
       </c>
       <c r="O40" s="7">
         <v>100000</v>
@@ -5878,7 +5872,7 @@
       <c r="R40" s="6"/>
       <c r="S40" s="6"/>
       <c r="T40" s="6" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="U40" s="6" t="s">
         <v>113</v>
@@ -5945,13 +5939,13 @@
         <v>142</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="M41" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N41" s="6" t="s">
-        <v>254</v>
+        <v>397</v>
       </c>
       <c r="O41" s="7">
         <v>100000</v>
@@ -5963,7 +5957,7 @@
       <c r="R41" s="6"/>
       <c r="S41" s="6"/>
       <c r="T41" s="6" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="U41" s="6">
         <v>1</v>
@@ -6030,13 +6024,13 @@
         <v>142</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>254</v>
+        <v>397</v>
       </c>
       <c r="O42" s="7">
         <v>100000</v>
@@ -6048,13 +6042,13 @@
       <c r="R42" s="6"/>
       <c r="S42" s="6"/>
       <c r="T42" s="6" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="U42" s="6" t="s">
         <v>113</v>
       </c>
       <c r="V42" s="6" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="W42" s="6">
         <v>1</v>
@@ -6115,13 +6109,13 @@
         <v>142</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="M43" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N43" s="6" t="s">
-        <v>255</v>
+        <v>398</v>
       </c>
       <c r="O43" s="7">
         <v>100000</v>
@@ -6200,13 +6194,13 @@
         <v>142</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="M44" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N44" s="6" t="s">
-        <v>255</v>
+        <v>398</v>
       </c>
       <c r="O44" s="7">
         <v>100000</v>
@@ -6285,13 +6279,13 @@
         <v>142</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="M45" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N45" s="6" t="s">
-        <v>255</v>
+        <v>398</v>
       </c>
       <c r="O45" s="7">
         <v>100000</v>
@@ -6370,13 +6364,13 @@
         <v>142</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="M46" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N46" s="6" t="s">
-        <v>255</v>
+        <v>398</v>
       </c>
       <c r="O46" s="7">
         <v>100000</v>
@@ -6455,13 +6449,13 @@
         <v>142</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="N47" s="6" t="s">
-        <v>255</v>
+        <v>398</v>
       </c>
       <c r="O47" s="7">
         <v>100000</v>
@@ -6540,13 +6534,13 @@
         <v>142</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="M48" s="6" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>255</v>
+        <v>398</v>
       </c>
       <c r="O48" s="7">
         <v>100000</v>
@@ -6625,13 +6619,13 @@
         <v>142</v>
       </c>
       <c r="L49" s="6" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="M49" s="6" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="N49" s="6" t="s">
-        <v>255</v>
+        <v>398</v>
       </c>
       <c r="O49" s="7">
         <v>100000</v>
@@ -6710,13 +6704,13 @@
         <v>142</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="M50" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N50" s="6" t="s">
-        <v>255</v>
+        <v>398</v>
       </c>
       <c r="O50" s="7">
         <v>100000</v>
@@ -6795,13 +6789,13 @@
         <v>142</v>
       </c>
       <c r="L51" s="6" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="M51" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N51" s="6" t="s">
-        <v>256</v>
+        <v>399</v>
       </c>
       <c r="O51" s="7">
         <v>100000</v>
@@ -6813,7 +6807,7 @@
       <c r="R51" s="6"/>
       <c r="S51" s="6"/>
       <c r="T51" s="6" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="U51" s="6">
         <v>1</v>
@@ -6880,13 +6874,13 @@
         <v>142</v>
       </c>
       <c r="L52" s="6" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="M52" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N52" s="6" t="s">
-        <v>256</v>
+        <v>399</v>
       </c>
       <c r="O52" s="7">
         <v>100000</v>
@@ -6898,7 +6892,7 @@
       <c r="R52" s="6"/>
       <c r="S52" s="6"/>
       <c r="T52" s="6" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="U52" s="6">
         <v>1</v>
@@ -6965,13 +6959,13 @@
         <v>142</v>
       </c>
       <c r="L53" s="6" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="M53" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N53" s="6" t="s">
-        <v>256</v>
+        <v>399</v>
       </c>
       <c r="O53" s="7">
         <v>100000</v>
@@ -6983,7 +6977,7 @@
       <c r="R53" s="6"/>
       <c r="S53" s="6"/>
       <c r="T53" s="6" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="U53" s="6" t="s">
         <v>113</v>
@@ -7050,13 +7044,13 @@
         <v>142</v>
       </c>
       <c r="L54" s="6" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="M54" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N54" s="6" t="s">
-        <v>256</v>
+        <v>399</v>
       </c>
       <c r="O54" s="7">
         <v>100000</v>
@@ -7068,7 +7062,7 @@
       <c r="R54" s="6"/>
       <c r="S54" s="6"/>
       <c r="T54" s="6" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="U54" s="6">
         <v>1</v>
@@ -7135,13 +7129,13 @@
         <v>142</v>
       </c>
       <c r="L55" s="6" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="M55" s="6" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="N55" s="6" t="s">
-        <v>256</v>
+        <v>399</v>
       </c>
       <c r="O55" s="7">
         <v>100000</v>
@@ -7153,13 +7147,13 @@
       <c r="R55" s="6"/>
       <c r="S55" s="6"/>
       <c r="T55" s="6" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="U55" s="6" t="s">
         <v>113</v>
       </c>
       <c r="V55" s="6" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="W55" s="6">
         <v>1</v>
@@ -7220,13 +7214,13 @@
         <v>142</v>
       </c>
       <c r="L56" s="6" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="M56" s="6" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="N56" s="6" t="s">
-        <v>256</v>
+        <v>399</v>
       </c>
       <c r="O56" s="7">
         <v>100000</v>
@@ -7238,13 +7232,13 @@
       <c r="R56" s="6"/>
       <c r="S56" s="6"/>
       <c r="T56" s="6" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="U56" s="6" t="s">
         <v>113</v>
       </c>
       <c r="V56" s="6" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="W56" s="6">
         <v>1</v>
@@ -7305,13 +7299,13 @@
         <v>142</v>
       </c>
       <c r="L57" s="6" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="M57" s="6" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="N57" s="6" t="s">
-        <v>256</v>
+        <v>399</v>
       </c>
       <c r="O57" s="7">
         <v>100000</v>
@@ -7323,13 +7317,13 @@
       <c r="R57" s="6"/>
       <c r="S57" s="6"/>
       <c r="T57" s="6" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="U57" s="6" t="s">
         <v>113</v>
       </c>
       <c r="V57" s="6" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="W57" s="6">
         <v>1</v>
@@ -7390,13 +7384,13 @@
         <v>142</v>
       </c>
       <c r="L58" s="6" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="M58" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N58" s="6" t="s">
-        <v>256</v>
+        <v>399</v>
       </c>
       <c r="O58" s="7">
         <v>100000</v>
@@ -7408,7 +7402,7 @@
       <c r="R58" s="6"/>
       <c r="S58" s="6"/>
       <c r="T58" s="6" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="U58" s="6">
         <v>2</v>
@@ -7475,13 +7469,13 @@
         <v>142</v>
       </c>
       <c r="L59" s="6" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="M59" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N59" s="6" t="s">
-        <v>257</v>
+        <v>400</v>
       </c>
       <c r="O59" s="7">
         <v>100000</v>
@@ -7493,7 +7487,7 @@
       <c r="R59" s="6"/>
       <c r="S59" s="6"/>
       <c r="T59" s="6" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="U59" s="6">
         <v>1</v>
@@ -7560,13 +7554,13 @@
         <v>142</v>
       </c>
       <c r="L60" s="6" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="M60" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N60" s="6" t="s">
-        <v>257</v>
+        <v>400</v>
       </c>
       <c r="O60" s="7">
         <v>100000</v>
@@ -7578,7 +7572,7 @@
       <c r="R60" s="6"/>
       <c r="S60" s="6"/>
       <c r="T60" s="6" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="U60" s="6">
         <v>1</v>
@@ -7645,13 +7639,13 @@
         <v>142</v>
       </c>
       <c r="L61" s="6" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="M61" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N61" s="6" t="s">
-        <v>257</v>
+        <v>400</v>
       </c>
       <c r="O61" s="7">
         <v>100000</v>
@@ -7663,7 +7657,7 @@
       <c r="R61" s="6"/>
       <c r="S61" s="6"/>
       <c r="T61" s="6" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="U61" s="6" t="s">
         <v>113</v>
@@ -7730,13 +7724,13 @@
         <v>142</v>
       </c>
       <c r="L62" s="6" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="M62" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N62" s="6" t="s">
-        <v>257</v>
+        <v>400</v>
       </c>
       <c r="O62" s="7">
         <v>100000</v>
@@ -7748,7 +7742,7 @@
       <c r="R62" s="6"/>
       <c r="S62" s="6"/>
       <c r="T62" s="6" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="U62" s="6">
         <v>1</v>
@@ -7815,13 +7809,13 @@
         <v>142</v>
       </c>
       <c r="L63" s="6" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="M63" s="6" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="N63" s="6" t="s">
-        <v>257</v>
+        <v>400</v>
       </c>
       <c r="O63" s="7">
         <v>100000</v>
@@ -7833,13 +7827,13 @@
       <c r="R63" s="6"/>
       <c r="S63" s="6"/>
       <c r="T63" s="6" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="U63" s="6" t="s">
         <v>113</v>
       </c>
       <c r="V63" s="6" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="W63" s="6">
         <v>1</v>
@@ -7900,13 +7894,13 @@
         <v>142</v>
       </c>
       <c r="L64" s="6" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="M64" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N64" s="6" t="s">
-        <v>258</v>
+        <v>401</v>
       </c>
       <c r="O64" s="7">
         <v>100000</v>
@@ -7918,7 +7912,7 @@
       <c r="R64" s="6"/>
       <c r="S64" s="6"/>
       <c r="T64" s="6" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="U64" s="6">
         <v>1</v>
@@ -7985,13 +7979,13 @@
         <v>142</v>
       </c>
       <c r="L65" s="6" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="M65" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N65" s="6" t="s">
-        <v>258</v>
+        <v>401</v>
       </c>
       <c r="O65" s="7">
         <v>100000</v>
@@ -8003,7 +7997,7 @@
       <c r="R65" s="6"/>
       <c r="S65" s="6"/>
       <c r="T65" s="6" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="U65" s="6">
         <v>1</v>
@@ -8070,13 +8064,13 @@
         <v>142</v>
       </c>
       <c r="L66" s="6" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="M66" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N66" s="6" t="s">
-        <v>258</v>
+        <v>401</v>
       </c>
       <c r="O66" s="7">
         <v>100000</v>
@@ -8088,7 +8082,7 @@
       <c r="R66" s="6"/>
       <c r="S66" s="6"/>
       <c r="T66" s="6" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="U66" s="6" t="s">
         <v>113</v>
@@ -8155,13 +8149,13 @@
         <v>142</v>
       </c>
       <c r="L67" s="6" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="M67" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N67" s="6" t="s">
-        <v>258</v>
+        <v>401</v>
       </c>
       <c r="O67" s="7">
         <v>100000</v>
@@ -8173,7 +8167,7 @@
       <c r="R67" s="6"/>
       <c r="S67" s="6"/>
       <c r="T67" s="6" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="U67" s="6">
         <v>1</v>
@@ -8240,13 +8234,13 @@
         <v>142</v>
       </c>
       <c r="L68" s="6" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="M68" s="6" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="N68" s="6" t="s">
-        <v>258</v>
+        <v>401</v>
       </c>
       <c r="O68" s="7">
         <v>100000</v>
@@ -8258,13 +8252,13 @@
       <c r="R68" s="6"/>
       <c r="S68" s="6"/>
       <c r="T68" s="6" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="U68" s="6" t="s">
         <v>113</v>
       </c>
       <c r="V68" s="6" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="W68" s="6">
         <v>1</v>
@@ -8325,13 +8319,13 @@
         <v>142</v>
       </c>
       <c r="L69" s="6" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="M69" s="6" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="N69" s="6" t="s">
-        <v>258</v>
+        <v>401</v>
       </c>
       <c r="O69" s="7">
         <v>100000</v>
@@ -8343,13 +8337,13 @@
       <c r="R69" s="6"/>
       <c r="S69" s="6"/>
       <c r="T69" s="6" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="U69" s="6" t="s">
         <v>113</v>
       </c>
       <c r="V69" s="6" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="W69" s="6">
         <v>1</v>
@@ -8410,13 +8404,13 @@
         <v>142</v>
       </c>
       <c r="L70" s="6" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="M70" s="6" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="N70" s="6" t="s">
-        <v>258</v>
+        <v>401</v>
       </c>
       <c r="O70" s="7">
         <v>100000</v>
@@ -8428,13 +8422,13 @@
       <c r="R70" s="6"/>
       <c r="S70" s="6"/>
       <c r="T70" s="6" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="U70" s="6" t="s">
         <v>113</v>
       </c>
       <c r="V70" s="6" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="W70" s="6">
         <v>1</v>
@@ -8495,13 +8489,13 @@
         <v>142</v>
       </c>
       <c r="L71" s="6" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="M71" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N71" s="6" t="s">
-        <v>258</v>
+        <v>401</v>
       </c>
       <c r="O71" s="7">
         <v>100000</v>
@@ -8513,7 +8507,7 @@
       <c r="R71" s="6"/>
       <c r="S71" s="6"/>
       <c r="T71" s="6" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="U71" s="6">
         <v>2</v>
@@ -8580,13 +8574,13 @@
         <v>142</v>
       </c>
       <c r="L72" s="6" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="M72" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N72" s="6" t="s">
-        <v>259</v>
+        <v>402</v>
       </c>
       <c r="O72" s="7">
         <v>100000</v>
@@ -8598,7 +8592,7 @@
       <c r="R72" s="6"/>
       <c r="S72" s="6"/>
       <c r="T72" s="6" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="U72" s="6">
         <v>1</v>
@@ -8665,13 +8659,13 @@
         <v>142</v>
       </c>
       <c r="L73" s="6" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="M73" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N73" s="6" t="s">
-        <v>259</v>
+        <v>402</v>
       </c>
       <c r="O73" s="7">
         <v>100000</v>
@@ -8683,7 +8677,7 @@
       <c r="R73" s="6"/>
       <c r="S73" s="6"/>
       <c r="T73" s="6" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="U73" s="6">
         <v>1</v>
@@ -8750,13 +8744,13 @@
         <v>142</v>
       </c>
       <c r="L74" s="6" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="M74" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N74" s="6" t="s">
-        <v>259</v>
+        <v>402</v>
       </c>
       <c r="O74" s="7">
         <v>100000</v>
@@ -8768,7 +8762,7 @@
       <c r="R74" s="6"/>
       <c r="S74" s="6"/>
       <c r="T74" s="6" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="U74" s="6" t="s">
         <v>113</v>
@@ -8835,13 +8829,13 @@
         <v>142</v>
       </c>
       <c r="L75" s="6" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="M75" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N75" s="6" t="s">
-        <v>259</v>
+        <v>402</v>
       </c>
       <c r="O75" s="7">
         <v>100000</v>
@@ -8853,7 +8847,7 @@
       <c r="R75" s="6"/>
       <c r="S75" s="6"/>
       <c r="T75" s="6" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="U75" s="6">
         <v>1</v>
@@ -8920,13 +8914,13 @@
         <v>142</v>
       </c>
       <c r="L76" s="6" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="M76" s="6" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="N76" s="6" t="s">
-        <v>259</v>
+        <v>402</v>
       </c>
       <c r="O76" s="7">
         <v>100000</v>
@@ -8938,13 +8932,13 @@
       <c r="R76" s="6"/>
       <c r="S76" s="6"/>
       <c r="T76" s="6" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="U76" s="6" t="s">
         <v>113</v>
       </c>
       <c r="V76" s="6" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="W76" s="6">
         <v>1</v>
@@ -9005,13 +8999,13 @@
         <v>142</v>
       </c>
       <c r="L77" s="6" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="M77" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N77" s="6" t="s">
-        <v>260</v>
+        <v>403</v>
       </c>
       <c r="O77" s="7">
         <v>100000</v>
@@ -9023,7 +9017,7 @@
       <c r="R77" s="6"/>
       <c r="S77" s="6"/>
       <c r="T77" s="6" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="U77" s="6">
         <v>1</v>
@@ -9090,13 +9084,13 @@
         <v>142</v>
       </c>
       <c r="L78" s="6" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="M78" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N78" s="6" t="s">
-        <v>260</v>
+        <v>403</v>
       </c>
       <c r="O78" s="7">
         <v>100000</v>
@@ -9108,7 +9102,7 @@
       <c r="R78" s="6"/>
       <c r="S78" s="6"/>
       <c r="T78" s="6" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="U78" s="6">
         <v>1</v>
@@ -9175,13 +9169,13 @@
         <v>142</v>
       </c>
       <c r="L79" s="6" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="M79" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N79" s="6" t="s">
-        <v>260</v>
+        <v>403</v>
       </c>
       <c r="O79" s="7">
         <v>100000</v>
@@ -9193,7 +9187,7 @@
       <c r="R79" s="6"/>
       <c r="S79" s="6"/>
       <c r="T79" s="6" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="U79" s="6" t="s">
         <v>113</v>
@@ -9260,13 +9254,13 @@
         <v>142</v>
       </c>
       <c r="L80" s="6" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="M80" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N80" s="6" t="s">
-        <v>260</v>
+        <v>403</v>
       </c>
       <c r="O80" s="7">
         <v>100000</v>
@@ -9278,7 +9272,7 @@
       <c r="R80" s="6"/>
       <c r="S80" s="6"/>
       <c r="T80" s="6" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="U80" s="6">
         <v>1</v>
@@ -9345,13 +9339,13 @@
         <v>142</v>
       </c>
       <c r="L81" s="6" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="M81" s="6" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="N81" s="6" t="s">
-        <v>260</v>
+        <v>403</v>
       </c>
       <c r="O81" s="7">
         <v>100000</v>
@@ -9363,13 +9357,13 @@
       <c r="R81" s="6"/>
       <c r="S81" s="6"/>
       <c r="T81" s="6" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="U81" s="6" t="s">
         <v>113</v>
       </c>
       <c r="V81" s="6" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="W81" s="6">
         <v>1</v>
@@ -9430,13 +9424,13 @@
         <v>142</v>
       </c>
       <c r="L82" s="6" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="M82" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N82" s="6" t="s">
-        <v>261</v>
+        <v>404</v>
       </c>
       <c r="O82" s="7">
         <v>100000</v>
@@ -9448,7 +9442,7 @@
       <c r="R82" s="6"/>
       <c r="S82" s="6"/>
       <c r="T82" s="6" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="U82" s="6">
         <v>1</v>
@@ -9515,13 +9509,13 @@
         <v>142</v>
       </c>
       <c r="L83" s="6" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="M83" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N83" s="6" t="s">
-        <v>261</v>
+        <v>404</v>
       </c>
       <c r="O83" s="7">
         <v>100000</v>
@@ -9533,7 +9527,7 @@
       <c r="R83" s="6"/>
       <c r="S83" s="6"/>
       <c r="T83" s="6" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="U83" s="6">
         <v>1</v>
@@ -9600,13 +9594,13 @@
         <v>142</v>
       </c>
       <c r="L84" s="6" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="M84" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N84" s="6" t="s">
-        <v>261</v>
+        <v>404</v>
       </c>
       <c r="O84" s="7">
         <v>100000</v>
@@ -9618,7 +9612,7 @@
       <c r="R84" s="6"/>
       <c r="S84" s="6"/>
       <c r="T84" s="6" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="U84" s="6" t="s">
         <v>113</v>
@@ -9685,13 +9679,13 @@
         <v>142</v>
       </c>
       <c r="L85" s="6" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="M85" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N85" s="6" t="s">
-        <v>261</v>
+        <v>404</v>
       </c>
       <c r="O85" s="7">
         <v>100000</v>
@@ -9703,7 +9697,7 @@
       <c r="R85" s="6"/>
       <c r="S85" s="6"/>
       <c r="T85" s="6" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="U85" s="6">
         <v>1</v>
@@ -9770,13 +9764,13 @@
         <v>142</v>
       </c>
       <c r="L86" s="6" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="M86" s="6" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="N86" s="6" t="s">
-        <v>261</v>
+        <v>404</v>
       </c>
       <c r="O86" s="7">
         <v>100000</v>
@@ -9788,13 +9782,13 @@
       <c r="R86" s="6"/>
       <c r="S86" s="6"/>
       <c r="T86" s="6" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="U86" s="6" t="s">
         <v>113</v>
       </c>
       <c r="V86" s="6" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="W86" s="6">
         <v>1</v>
@@ -9855,13 +9849,13 @@
         <v>142</v>
       </c>
       <c r="L87" s="6" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="M87" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N87" s="6" t="s">
-        <v>262</v>
+        <v>405</v>
       </c>
       <c r="O87" s="7">
         <v>100000</v>
@@ -9873,7 +9867,7 @@
       <c r="R87" s="6"/>
       <c r="S87" s="6"/>
       <c r="T87" s="6" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="U87" s="6">
         <v>1</v>
@@ -9940,13 +9934,13 @@
         <v>142</v>
       </c>
       <c r="L88" s="6" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="M88" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N88" s="6" t="s">
-        <v>262</v>
+        <v>405</v>
       </c>
       <c r="O88" s="7">
         <v>100000</v>
@@ -9958,7 +9952,7 @@
       <c r="R88" s="6"/>
       <c r="S88" s="6"/>
       <c r="T88" s="6" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="U88" s="6">
         <v>1</v>
@@ -10025,13 +10019,13 @@
         <v>142</v>
       </c>
       <c r="L89" s="6" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="M89" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N89" s="6" t="s">
-        <v>262</v>
+        <v>405</v>
       </c>
       <c r="O89" s="7">
         <v>100000</v>
@@ -10043,7 +10037,7 @@
       <c r="R89" s="6"/>
       <c r="S89" s="6"/>
       <c r="T89" s="6" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="U89" s="6" t="s">
         <v>113</v>
@@ -10110,13 +10104,13 @@
         <v>142</v>
       </c>
       <c r="L90" s="6" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="M90" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N90" s="6" t="s">
-        <v>262</v>
+        <v>405</v>
       </c>
       <c r="O90" s="7">
         <v>100000</v>
@@ -10128,7 +10122,7 @@
       <c r="R90" s="6"/>
       <c r="S90" s="6"/>
       <c r="T90" s="6" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="U90" s="6">
         <v>1</v>
@@ -10195,13 +10189,13 @@
         <v>142</v>
       </c>
       <c r="L91" s="6" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="M91" s="6" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="N91" s="6" t="s">
-        <v>262</v>
+        <v>405</v>
       </c>
       <c r="O91" s="7">
         <v>100000</v>
@@ -10213,13 +10207,13 @@
       <c r="R91" s="6"/>
       <c r="S91" s="6"/>
       <c r="T91" s="6" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="U91" s="6" t="s">
         <v>113</v>
       </c>
       <c r="V91" s="6" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="W91" s="6">
         <v>1</v>
@@ -10280,13 +10274,13 @@
         <v>142</v>
       </c>
       <c r="L92" s="6" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="M92" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N92" s="6" t="s">
-        <v>263</v>
+        <v>406</v>
       </c>
       <c r="O92" s="7">
         <v>100000</v>
@@ -10298,7 +10292,7 @@
       <c r="R92" s="6"/>
       <c r="S92" s="6"/>
       <c r="T92" s="6" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="U92" s="6">
         <v>1</v>
@@ -10365,13 +10359,13 @@
         <v>142</v>
       </c>
       <c r="L93" s="6" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="M93" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N93" s="6" t="s">
-        <v>263</v>
+        <v>406</v>
       </c>
       <c r="O93" s="7">
         <v>100000</v>
@@ -10383,7 +10377,7 @@
       <c r="R93" s="6"/>
       <c r="S93" s="6"/>
       <c r="T93" s="6" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="U93" s="6">
         <v>1</v>
@@ -10450,13 +10444,13 @@
         <v>142</v>
       </c>
       <c r="L94" s="6" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="M94" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N94" s="6" t="s">
-        <v>263</v>
+        <v>406</v>
       </c>
       <c r="O94" s="7">
         <v>100000</v>
@@ -10468,7 +10462,7 @@
       <c r="R94" s="6"/>
       <c r="S94" s="6"/>
       <c r="T94" s="6" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="U94" s="6" t="s">
         <v>113</v>
@@ -10535,13 +10529,13 @@
         <v>142</v>
       </c>
       <c r="L95" s="6" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="M95" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N95" s="6" t="s">
-        <v>263</v>
+        <v>406</v>
       </c>
       <c r="O95" s="7">
         <v>100000</v>
@@ -10553,7 +10547,7 @@
       <c r="R95" s="6"/>
       <c r="S95" s="6"/>
       <c r="T95" s="6" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="U95" s="6">
         <v>1</v>
@@ -10620,13 +10614,13 @@
         <v>142</v>
       </c>
       <c r="L96" s="6" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="M96" s="6" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="N96" s="6" t="s">
-        <v>263</v>
+        <v>406</v>
       </c>
       <c r="O96" s="7">
         <v>100000</v>
@@ -10638,13 +10632,13 @@
       <c r="R96" s="6"/>
       <c r="S96" s="6"/>
       <c r="T96" s="6" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="U96" s="6" t="s">
         <v>113</v>
       </c>
       <c r="V96" s="6" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="W96" s="6">
         <v>1</v>
@@ -10705,13 +10699,13 @@
         <v>142</v>
       </c>
       <c r="L97" s="6" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="M97" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N97" s="6" t="s">
-        <v>264</v>
+        <v>407</v>
       </c>
       <c r="O97" s="7">
         <v>100000</v>
@@ -10723,7 +10717,7 @@
       <c r="R97" s="6"/>
       <c r="S97" s="6"/>
       <c r="T97" s="6" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="U97" s="6">
         <v>1</v>
@@ -10790,13 +10784,13 @@
         <v>142</v>
       </c>
       <c r="L98" s="6" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="M98" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N98" s="6" t="s">
-        <v>264</v>
+        <v>407</v>
       </c>
       <c r="O98" s="7">
         <v>100000</v>
@@ -10808,7 +10802,7 @@
       <c r="R98" s="6"/>
       <c r="S98" s="6"/>
       <c r="T98" s="6" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="U98" s="6">
         <v>1</v>
@@ -10875,13 +10869,13 @@
         <v>142</v>
       </c>
       <c r="L99" s="6" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="M99" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N99" s="6" t="s">
-        <v>264</v>
+        <v>407</v>
       </c>
       <c r="O99" s="7">
         <v>100000</v>
@@ -10893,7 +10887,7 @@
       <c r="R99" s="6"/>
       <c r="S99" s="6"/>
       <c r="T99" s="6" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="U99" s="6" t="s">
         <v>113</v>
@@ -10960,13 +10954,13 @@
         <v>142</v>
       </c>
       <c r="L100" s="6" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="M100" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N100" s="6" t="s">
-        <v>264</v>
+        <v>407</v>
       </c>
       <c r="O100" s="7">
         <v>100000</v>
@@ -10978,7 +10972,7 @@
       <c r="R100" s="6"/>
       <c r="S100" s="6"/>
       <c r="T100" s="6" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="U100" s="6">
         <v>1</v>
@@ -11045,13 +11039,13 @@
         <v>142</v>
       </c>
       <c r="L101" s="6" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="M101" s="6" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="N101" s="6" t="s">
-        <v>264</v>
+        <v>407</v>
       </c>
       <c r="O101" s="7">
         <v>100000</v>
@@ -11063,13 +11057,13 @@
       <c r="R101" s="6"/>
       <c r="S101" s="6"/>
       <c r="T101" s="6" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="U101" s="6" t="s">
         <v>113</v>
       </c>
       <c r="V101" s="6" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="W101" s="6">
         <v>1</v>
@@ -11130,13 +11124,13 @@
         <v>142</v>
       </c>
       <c r="L102" s="6" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="M102" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N102" s="6" t="s">
-        <v>265</v>
+        <v>408</v>
       </c>
       <c r="O102" s="7">
         <v>100000</v>
@@ -11148,7 +11142,7 @@
       <c r="R102" s="6"/>
       <c r="S102" s="6"/>
       <c r="T102" s="6" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="U102" s="6">
         <v>1</v>
@@ -11215,13 +11209,13 @@
         <v>142</v>
       </c>
       <c r="L103" s="6" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="M103" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N103" s="6" t="s">
-        <v>265</v>
+        <v>408</v>
       </c>
       <c r="O103" s="7">
         <v>100000</v>
@@ -11233,7 +11227,7 @@
       <c r="R103" s="6"/>
       <c r="S103" s="6"/>
       <c r="T103" s="6" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="U103" s="6">
         <v>1</v>
@@ -11300,13 +11294,13 @@
         <v>142</v>
       </c>
       <c r="L104" s="6" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="M104" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N104" s="6" t="s">
-        <v>265</v>
+        <v>408</v>
       </c>
       <c r="O104" s="7">
         <v>100000</v>
@@ -11318,7 +11312,7 @@
       <c r="R104" s="6"/>
       <c r="S104" s="6"/>
       <c r="T104" s="6" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="U104" s="6" t="s">
         <v>113</v>
@@ -11385,13 +11379,13 @@
         <v>142</v>
       </c>
       <c r="L105" s="6" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="M105" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N105" s="6" t="s">
-        <v>265</v>
+        <v>408</v>
       </c>
       <c r="O105" s="7">
         <v>100000</v>
@@ -11403,7 +11397,7 @@
       <c r="R105" s="6"/>
       <c r="S105" s="6"/>
       <c r="T105" s="6" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="U105" s="6">
         <v>1</v>
@@ -11470,13 +11464,13 @@
         <v>142</v>
       </c>
       <c r="L106" s="6" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="M106" s="6" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="N106" s="6" t="s">
-        <v>265</v>
+        <v>408</v>
       </c>
       <c r="O106" s="7">
         <v>100000</v>
@@ -11488,13 +11482,13 @@
       <c r="R106" s="6"/>
       <c r="S106" s="6"/>
       <c r="T106" s="6" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="U106" s="6" t="s">
         <v>113</v>
       </c>
       <c r="V106" s="6" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="W106" s="6">
         <v>1</v>
@@ -11555,13 +11549,13 @@
         <v>142</v>
       </c>
       <c r="L107" s="6" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="M107" s="6" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="N107" s="6" t="s">
-        <v>265</v>
+        <v>408</v>
       </c>
       <c r="O107" s="7">
         <v>100000</v>
@@ -11573,13 +11567,13 @@
       <c r="R107" s="6"/>
       <c r="S107" s="6"/>
       <c r="T107" s="6" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="U107" s="6" t="s">
         <v>113</v>
       </c>
       <c r="V107" s="6" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="W107" s="6">
         <v>1</v>
@@ -11640,13 +11634,13 @@
         <v>142</v>
       </c>
       <c r="L108" s="6" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="M108" s="6" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="N108" s="6" t="s">
-        <v>265</v>
+        <v>408</v>
       </c>
       <c r="O108" s="7">
         <v>100000</v>
@@ -11658,13 +11652,13 @@
       <c r="R108" s="6"/>
       <c r="S108" s="6"/>
       <c r="T108" s="6" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="U108" s="6" t="s">
         <v>113</v>
       </c>
       <c r="V108" s="6" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="W108" s="6">
         <v>1</v>
@@ -11725,13 +11719,13 @@
         <v>142</v>
       </c>
       <c r="L109" s="6" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="M109" s="6" t="s">
         <v>141</v>
       </c>
       <c r="N109" s="6" t="s">
-        <v>265</v>
+        <v>408</v>
       </c>
       <c r="O109" s="7">
         <v>100000</v>
@@ -11743,7 +11737,7 @@
       <c r="R109" s="6"/>
       <c r="S109" s="6"/>
       <c r="T109" s="6" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="U109" s="6">
         <v>2</v>
